--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Baker.Spring.012120.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Baker.Spring.012120.xlsx_with_dialog_acts.xlsx
@@ -765,12 +765,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2319,12 +2319,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2487,12 +2487,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3369,12 +3369,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3411,12 +3411,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3621,12 +3621,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3915,12 +3915,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3957,12 +3957,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4549,12 +4549,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5485,12 +5485,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5863,12 +5863,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6199,12 +6199,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6409,12 +6409,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6967,12 +6967,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7353,12 +7353,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8075,12 +8075,12 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8117,12 +8117,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8243,12 +8243,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8327,12 +8327,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8411,12 +8411,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9759,12 +9759,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9969,12 +9969,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10053,12 +10053,12 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10221,12 +10221,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10645,12 +10645,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10771,12 +10771,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10813,12 +10813,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12207,12 +12207,12 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12249,12 +12249,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12543,12 +12543,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12715,12 +12715,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12799,12 +12799,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12967,12 +12967,12 @@
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13055,12 +13055,12 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13097,12 +13097,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13181,12 +13181,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13517,12 +13517,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13979,12 +13979,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14021,12 +14021,12 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14987,12 +14987,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15701,12 +15701,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16167,12 +16167,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -16881,12 +16881,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16965,12 +16965,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17133,12 +17133,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17553,12 +17553,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17981,12 +17981,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18233,12 +18233,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18485,12 +18485,12 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18699,12 +18699,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19681,12 +19681,12 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20227,12 +20227,12 @@
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20899,12 +20899,12 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21487,12 +21487,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21655,12 +21655,12 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21865,12 +21865,12 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22075,12 +22075,12 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22117,12 +22117,12 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22495,12 +22495,12 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22579,12 +22579,12 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22663,12 +22663,12 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22747,12 +22747,12 @@
       <c r="H529" t="inlineStr"/>
       <c r="I529" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23041,12 +23041,12 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23293,12 +23293,12 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23545,12 +23545,12 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24091,12 +24091,12 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
